--- a/ex/Book1.xlsx
+++ b/ex/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D4A9BA-22D8-42B3-B93E-55A5C62527D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB01BE-4F5E-409A-8CDA-D2D4BF17A8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D6C18F03-564A-40AA-A193-15F4CED7891A}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>Sale Part</t>
   </si>
   <si>
-    <t>ให้โชว์ข้อมูล Dashboard  ซึ่งจะกลายเป็นหน้าแรกโชว์ข้อมูล 5 ช่อง ช่องที่1 โชว์ยอดออเดอร์ที่ต้องส่ง ช่องที่2 โชว์ว่าวันนี้ส่งไปแล้วกี่ออเดอร์ ช่องที่3 โชว์ว่าวันนี้ยังไม่ได้ส่งกี่ออเดอร์ ช่องที่4 โชว์ว่ายอดที่ Delay หรือยอดค้างของเมื่อวานที่ต้องส่งเท่าไหร่ ช่องที่5 โชว์ว่ายอดที่ต้องส่ง+ยอดค้างส่งแล้ะข้างล่างให้โชว์ข้อมูลในตาม format ใน Excel ที่ทำเป็นตัวอย่างให้ดู</t>
+    <t>ให้โชว์ข้อมูล Dashboard  ซึ่งจะกลายเป็นหน้าแรกโชว์ข้อมูล 5 ช่อง ช่องที่1 โชว์ยอดออเดอร์ที่ต้องส่งทั้งหมด500ต่อวัน ช่องที่2 โชว์ว่าวันนี้ส่งไปแล้วกี่ออเดอร์ ช่องที่3 โชว์ว่าวันนี้ยังไม่ได้ส่งกี่ออเดอร์ ช่องที่4 โชว์ว่ายอดที่ Delay หรือยอดค้างของเมื่อวานที่ต้องส่งเท่าไหร่ ช่องที่5 โชว์ว่ายอดที่ต้องส่ง+ยอดค้างส่งแล้ะข้างล่างให้โชว์ข้อมูลในตาม format ใน Excel ที่ทำเป็นตัวอย่างให้ดู</t>
   </si>
 </sst>
 </file>
@@ -136,10 +136,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,28 +491,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -522,7 +522,7 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -541,13 +541,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ex/Book1.xlsx
+++ b/ex/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB01BE-4F5E-409A-8CDA-D2D4BF17A8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5F502-6F01-4A41-8B2B-BEAEC1CB2B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D6C18F03-564A-40AA-A193-15F4CED7891A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6C18F03-564A-40AA-A193-15F4CED7891A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Customer</t>
   </si>
@@ -63,7 +63,10 @@
     <t>Sale Part</t>
   </si>
   <si>
-    <t>ให้โชว์ข้อมูล Dashboard  ซึ่งจะกลายเป็นหน้าแรกโชว์ข้อมูล 5 ช่อง ช่องที่1 โชว์ยอดออเดอร์ที่ต้องส่งทั้งหมด500ต่อวัน ช่องที่2 โชว์ว่าวันนี้ส่งไปแล้วกี่ออเดอร์ ช่องที่3 โชว์ว่าวันนี้ยังไม่ได้ส่งกี่ออเดอร์ ช่องที่4 โชว์ว่ายอดที่ Delay หรือยอดค้างของเมื่อวานที่ต้องส่งเท่าไหร่ ช่องที่5 โชว์ว่ายอดที่ต้องส่ง+ยอดค้างส่งแล้ะข้างล่างให้โชว์ข้อมูลในตาม format ใน Excel ที่ทำเป็นตัวอย่างให้ดู</t>
+    <t>ให้โชว์ข้อมูล Dashboard  ซึ่งจะกลายเป็นหน้าแรกโชว์ข้อมูล 5 ช่อง ช่องที่1 โชว์ยอดออเดอร์ที่ต้องส่งทั้งหมด500ต่อวัน ช่องที่2 โชว์ว่าวันนี้ส่งไปแล้วกี่ออเดอร์ ช่องที่3 โชว์ว่าวันนี้ยังไม่ได้ส่งกี่ออเดอร์ ช่องที่4 โชว์ว่ายอดที่ Delay หรือยอดค้างของเมื่อวานที่ต้องส่งเท่าไหร่ ช่องที่5 โชว์ว่ายอดที่ต้องส่ง+ยอดค้างส่ง</t>
+  </si>
+  <si>
+    <t>ข้างล่างให้โชว์ข้อมูลในตาม format ใน Excel ที่ทำเป็นตัวอย่างให้ดู</t>
   </si>
 </sst>
 </file>
@@ -476,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598034C7-A847-4B50-9BD4-0B1C4DDFDB7C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D112A3-4556-4801-AFA6-A8202F895812}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +554,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
